--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6d5a25aa2736229c/Documents/sxoli/arxes/deyterh ergasia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_3A01274C07CCAA43B112432426DC53CDA7E25E5A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0527647D-EA21-41FF-9D66-EE12FCE392D9}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="11_3A01274C07CCAA43B112432426DC53CDA7E25E5A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80524CB4-F7C4-476F-BA95-D215479CE16C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1014,7 +1014,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XA343"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C195" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H200" sqref="H200"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
